--- a/天津/旅游数据收集-天津市.xlsx
+++ b/天津/旅游数据收集-天津市.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="盘山" sheetId="1" r:id="rId1"/>
+    <sheet name="津门故里" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>所在省份</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -155,6 +156,57 @@
   </si>
   <si>
     <t>云罩寺位于盘山的挂月峰上，是盘山地势最高的寺庙。云罩寺的历史可以追溯到唐代，由唐代的道宗大师修建，原本的名字叫做降龙庵，在明代重新修建的时候，因为这里“地邻绝岭，云掩雾罩”所以起名叫做云罩寺。</t>
+  </si>
+  <si>
+    <t>“泥人张”彩塑</t>
+  </si>
+  <si>
+    <t>“泥人张”彩塑被公认为是天津的一绝，是著名的汉族传统手工艺品之一。作为北方流传的一派民间彩塑，创始于清代道光年间，是天津艺人张明山于19世纪中叶创造的彩绘泥塑艺术品，现为天津市首批国家级非物质文化遗产。</t>
+  </si>
+  <si>
+    <t>古玩城</t>
+  </si>
+  <si>
+    <t>天津古玩城坐落在古文化街旅游商贸区中央部位，北临家世界超市，南至天后宫，西接东马路，东面与古文化街北段紧密相连，古玩城由六个相对独立的单体建筑构成，占地面积1.01万平方米，总建筑面积达3.05万平方米（含地下车库），为华北地区最大的专业古玩市场。古玩城其单元布局和名称分别是一单元：清秀；二单元：明馨；三单元：元珍；四单元：宋雅；五单元：唐韵；六单元：汉风。平面布局由一街道、三广场、五庭院、四弄堂组成　古玩城地下一层，为大型的地下停车场；地上五层，为经营性店铺及仓储用房。一、二层共有300余间店鋪。</t>
+  </si>
+  <si>
+    <t>天后宫</t>
+  </si>
+  <si>
+    <t>天后宫位于天津古城东门外，始建于元代。由于当时海运漕粮，漕船海难不断发生，而天津是海运漕粮的终点，是转入内河装卸漕粮的码头，所以，元泰定三年（1326年），皇帝下令建天后宫（当时叫天妃宫）于天津海河三岔河口码头附近，供人们奉祀海神天后。水工、船夫、官员在出海或漕粮到达时，都向天后祈福求安。居家百姓没钱的也来求财，没儿的求子，有病的祈免病灾。这是古人无法克服海洋、江河险难而求助神灵的消极表现，也反映了苦难民众的古朴文化心态。</t>
+  </si>
+  <si>
+    <t>文化小城</t>
+  </si>
+  <si>
+    <t>文化小城建筑面积约1万平方米，总体由6个部分组成，其中包括5个商业院落和一处银杏广场，在景观设计上体现出天津地方民俗特色。从整体上看，文化小城既有现代建筑风格，又不失历史文化韵味。五个商业院落中，每个院落内均设有一处石雕，分别代表金、木、水、火、土五行。银杏广场位于文化小城东侧，该广场是为了保留两棵近三百年历史的雌雄银杏树而特意建成的，广场也因此得名。</t>
+  </si>
+  <si>
+    <t>杨柳青年画</t>
+  </si>
+  <si>
+    <t>杨柳青年画，全称“杨柳青木板年画”，属于木版印绘制品，是著名的汉族民间木版年画之一，与苏州桃花坞年画并称“南桃北柳”。杨柳青年画产生于元末明初，当时有一名长于雕刻的民间艺人避难来到杨柳青镇，逢年过节就刻些门神、灶王出卖，镇上的人争相模仿。到了明永乐年间，大运河重新疏通，南方精致的纸张、水彩运到了杨柳青，使这里的绘画艺术得到了极大发展。清代光绪以前是杨柳青年画发展的鼎盛时期。那时，天津杨柳青镇及其附近村庄，大都从事年画作坊生产，可谓是“家家会点染，户户善丹青”，年画因以产地得名。</t>
+  </si>
+  <si>
+    <t>玉皇阁</t>
+  </si>
+  <si>
+    <t>玉皇阁道教道院。在天津市旧城东北角。始建于明代宣德二年(1427)，天津玉皇阁弘治、万历和清代康熙、光绪年间均有修缮与重建。原由旗杆、牌楼、山门、钟鼓楼、前殿、八挂亭、清虚阁、南斗楼、北斗楼以及三清殿组成，其中清虚阁是庙内的主体建筑。但到了近代，由于帝国主义的侵略，玉皇阁的建筑遭到了严重的破坏，现仅存的清虚阁是玉皇阁建筑群中唯一保留下来的一座明代建筑。只是至今仍然沿用着玉皇阁的名称。</t>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>津门故里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>古文化街位于南开区东北角东门外，海河西岸，北起老铁桥大街(宫北大街)，南至水阁大街(宫南大街)。南北街口各有牌坊一座，上书“津门故里”和“沽上艺苑”，长687米，宽5米，系商业步行街。天后在古时被人们称为护航女神。传说她是福建人，姓林名默，经常驾船出海，搭救遇难的人，故被后人敬为女神。元时京城每年需北运大批粮食，先从海路运抵天津，然后再转河运至京城。元政府为祈求航海安全，便将护航女神崇为天妃，并在沿海城镇建起天后宫。天津的天后宫建于公元1326年。农历三月二十三日是娘娘的生日。介绍天津的历史变革，陈列着各种民俗风情实物。皇会是因清乾隆皇帝下江南时曾游此会而得名。传统的演出场所在天后宫前的广场以及宫南、宫北一带。古文化街建成后，每逢农历三月二十三日(“天后”诞辰吉日)在此举行盛大的皇会，表演龙灯舞、狮子舞、少林会、高跷、法鼓、旱船、地秧歌、武术以及京戏、评剧、梆子等。</t>
+  </si>
+  <si>
+    <t>津门故里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -525,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,4 +864,153 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>